--- a/projects.xlsx
+++ b/projects.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\CSDrepos\cadPis1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AC343C-5FFF-482A-B11E-D4BD43367792}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Студент</t>
+  </si>
+  <si>
+    <t>Тема проеткту</t>
+  </si>
+  <si>
+    <t>Вохранов І.А.</t>
+  </si>
+  <si>
+    <t>Система комунікації орендодавця та орендатора</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +51,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +93,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +380,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.44140625" customWidth="1"/>
+    <col min="2" max="2" width="71.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/projects.xlsx
+++ b/projects.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\CSDrepos\cadPis1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\study\7sem\Cs\cadPis1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AC343C-5FFF-482A-B11E-D4BD43367792}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Студент</t>
   </si>
@@ -37,12 +36,18 @@
   </si>
   <si>
     <t>Система комунікації орендодавця та орендатора</t>
+  </si>
+  <si>
+    <t>Данилюк В.М</t>
+  </si>
+  <si>
+    <t>Программа для підрахунку калорій за день</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,7 +108,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -380,20 +385,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" customWidth="1"/>
-    <col min="2" max="2" width="71.44140625" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="71.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,12 +406,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\study\7sem\Cs\cadPis1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
+    <workbookView windowWidth="11890" windowHeight="6980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Студент</t>
   </si>
@@ -43,17 +33,36 @@
   <si>
     <t>Программа для підрахунку калорій за день</t>
   </si>
+  <si>
+    <t>Сідельников Н.А.</t>
+  </si>
+  <si>
+    <t>Інформаційна система « Витрачення грошей за день»</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -61,18 +70,168 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,12 +240,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -94,11 +439,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -106,18 +693,63 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
+    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
+    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
+    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
+    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
+    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
+    <cellStyle name="Процент" xfId="9" builtinId="5"/>
+    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
+    <cellStyle name="Итого" xfId="11" builtinId="25"/>
+    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
+    <cellStyle name="Примечание" xfId="14" builtinId="10"/>
+    <cellStyle name="40% — Акцент4" xfId="15" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="16" builtinId="9"/>
+    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
+    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
+    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
+    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
+    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
+    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
+    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
+    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
+    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
+    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
+    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
+    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -166,7 +798,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -201,7 +833,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -375,38 +1007,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" customWidth="1"/>
-    <col min="2" max="2" width="71.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44.4272727272727" customWidth="1"/>
+    <col min="2" max="2" width="71.4272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="20.45" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -414,7 +1041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -422,8 +1049,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>